--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,27 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>love</t>
@@ -94,73 +97,73 @@
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
@@ -169,70 +172,58 @@
     <t>protect</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>store</t>
+    <t>stay</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -590,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -659,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C5">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6756756756756757</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4563758389261745</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8359375</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4418604651162791</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C8">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3866666666666667</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3777777777777778</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3544973544973545</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3376623376623377</v>
+        <v>0.3375</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2896825396825397</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8166666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1528150134048257</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,37 +1250,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01053639846743295</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3099</v>
+        <v>310</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,37 +1300,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.009751176866173503</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="F16">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2945</v>
+        <v>3094</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,21 +1342,45 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.008406186953597848</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>158</v>
+      </c>
+      <c r="E17">
+        <v>0.84</v>
+      </c>
+      <c r="F17">
+        <v>0.16</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2949</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,411 +1392,411 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
+      <c r="K19">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L19">
+        <v>64</v>
+      </c>
+      <c r="M19">
+        <v>64</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.6475195822454308</v>
+      </c>
+      <c r="L21">
+        <v>248</v>
+      </c>
+      <c r="M21">
+        <v>248</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.62</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.5911764705882353</v>
+      </c>
+      <c r="L25">
+        <v>201</v>
+      </c>
+      <c r="M25">
+        <v>201</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.5661016949152542</v>
+      </c>
+      <c r="L26">
+        <v>167</v>
+      </c>
+      <c r="M26">
+        <v>167</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="L28">
+        <v>43</v>
+      </c>
+      <c r="M28">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L29">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L30">
         <v>38</v>
       </c>
-      <c r="K18">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>36</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L20">
-        <v>66</v>
-      </c>
-      <c r="M20">
-        <v>66</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.660574412532637</v>
-      </c>
-      <c r="L22">
-        <v>253</v>
-      </c>
-      <c r="M22">
-        <v>253</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.625</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.625</v>
-      </c>
-      <c r="L24">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.62</v>
-      </c>
-      <c r="L25">
-        <v>31</v>
-      </c>
-      <c r="M25">
-        <v>31</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.5955056179775281</v>
-      </c>
-      <c r="L26">
+      <c r="M30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.5188284518828452</v>
+      </c>
+      <c r="L31">
+        <v>124</v>
+      </c>
+      <c r="M31">
+        <v>124</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M26">
-        <v>53</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.5864406779661017</v>
-      </c>
-      <c r="L27">
-        <v>173</v>
-      </c>
-      <c r="M27">
-        <v>173</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.5735294117647058</v>
-      </c>
-      <c r="L28">
-        <v>195</v>
-      </c>
-      <c r="M28">
-        <v>195</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.5538461538461539</v>
-      </c>
-      <c r="L29">
-        <v>36</v>
-      </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.547945205479452</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>40</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
+      <c r="K32">
         <v>0.5</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>35</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>35</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="L32">
-        <v>38</v>
-      </c>
-      <c r="M32">
-        <v>38</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4811715481171548</v>
+        <v>0.484375</v>
       </c>
       <c r="L33">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1793,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4262295081967213</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1819,47 +1834,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.421875</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.2440944881889764</v>
+        <v>0.1754807692307692</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1871,475 +1886,371 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>96</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.1923076923076923</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.184652278177458</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="L38">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>340</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.1775700934579439</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>176</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.1706730769230769</v>
+        <v>0.1231802911534155</v>
       </c>
       <c r="L40">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="M40">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>345</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.154320987654321</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L41">
         <v>25</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.1495327102803738</v>
+        <v>0.1013071895424837</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M42">
         <v>33</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>182</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.1266375545851528</v>
+        <v>0.09211986681465038</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>200</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.1140939597315436</v>
+        <v>0.08901734104046242</v>
       </c>
       <c r="L44">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="M44">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.1111111111111111</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L45">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>800</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.09876543209876543</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N46">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>292</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.09161490683229814</v>
+        <v>0.07449316360207449</v>
       </c>
       <c r="L47">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="M47">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>585</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.07630057803468208</v>
+        <v>0.04682622268470343</v>
       </c>
       <c r="L48">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M48">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>799</v>
+        <v>916</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="K49">
-        <v>0.07602064758329423</v>
+        <v>0.04315379623621025</v>
       </c>
       <c r="L49">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="M49">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0.16</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1969</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K50">
-        <v>0.0743801652892562</v>
+        <v>0.02274162981680354</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51">
-        <v>0.04320987654320987</v>
-      </c>
-      <c r="L51">
-        <v>133</v>
-      </c>
-      <c r="M51">
-        <v>162</v>
-      </c>
-      <c r="N51">
-        <v>0.82</v>
-      </c>
-      <c r="O51">
-        <v>0.18</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52">
-        <v>0.04058272632674298</v>
-      </c>
-      <c r="L52">
-        <v>39</v>
-      </c>
-      <c r="M52">
-        <v>46</v>
-      </c>
-      <c r="N52">
-        <v>0.85</v>
-      </c>
-      <c r="O52">
-        <v>0.15</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K53">
-        <v>0.02339688041594454</v>
-      </c>
-      <c r="L53">
-        <v>27</v>
-      </c>
-      <c r="M53">
-        <v>34</v>
-      </c>
-      <c r="N53">
-        <v>0.79</v>
-      </c>
-      <c r="O53">
-        <v>0.21</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54">
-        <v>0.02178030303030303</v>
-      </c>
-      <c r="L54">
-        <v>69</v>
-      </c>
-      <c r="M54">
-        <v>102</v>
-      </c>
-      <c r="N54">
-        <v>0.68</v>
-      </c>
-      <c r="O54">
-        <v>0.32</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3099</v>
+        <v>3094</v>
       </c>
     </row>
   </sheetData>
